--- a/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T09:39:16+00:00</t>
+    <t>2025-08-01T06:15:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:15:10+00:00</t>
+    <t>2025-08-11T13:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:26+00:00</t>
+    <t>2025-08-11T13:13:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:41+00:00</t>
+    <t>2025-08-11T17:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T17:10:25+00:00</t>
+    <t>2025-09-16T13:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -859,7 +859,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -968,7 +968,7 @@
     <t>PractitionerRole.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>

--- a/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T13:34:10+00:00</t>
+    <t>2025-09-18T08:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T08:13:56+00:00</t>
+    <t>2025-09-18T15:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:39:47+00:00</t>
+    <t>2025-09-18T15:54:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:54:11+00:00</t>
+    <t>2025-10-08T12:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3080,7 +3080,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>120</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>213</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>218</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>223</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>327</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>337</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>366</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>371</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>384</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>389</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>394</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>399</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>404</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>409</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>414</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>426</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>433</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="122" hidden="true">
+    <row r="122">
       <c r="A122" t="s" s="2">
         <v>589</v>
       </c>
@@ -16955,7 +16955,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="126" hidden="true">
+    <row r="126">
       <c r="A126" t="s" s="2">
         <v>594</v>
       </c>
@@ -17887,7 +17887,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="134" hidden="true">
+    <row r="134">
       <c r="A134" t="s" s="2">
         <v>623</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="140" hidden="true">
+    <row r="140">
       <c r="A140" t="s" s="2">
         <v>635</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="141" hidden="true">
+    <row r="141">
       <c r="A141" t="s" s="2">
         <v>638</v>
       </c>
@@ -18817,12 +18817,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO141">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:14:02+00:00</t>
+    <t>2025-10-08T12:28:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:28:03+00:00</t>
+    <t>2025-10-08T12:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1342,7 +1342,7 @@
 </t>
   </si>
   <si>
-    <t>Référence vers la location dans PractitionerRole.contained représentant les coordonnées de l'activité (idLocation).</t>
+    <t>The location(s) at which this practitioner provides care</t>
   </si>
   <si>
     <t>The location(s) at which this practitioner provides care.</t>
@@ -9533,7 +9533,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
         <v>426</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>78</v>

--- a/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$132</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5225" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4890" uniqueCount="630">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:56:25+00:00</t>
+    <t>2025-10-08T13:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -991,45 +991,6 @@
   </si>
   <si>
     <t>./IdentifierIssuingAuthority</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm</t>
-  </si>
-  <si>
-    <t>numeroAm</t>
-  </si>
-  <si>
-    <t>[Donnée restreinte] : Identifiant d’activité propre à l’Assurance Maladie. format: 9 digits. synonyme: numeroAM</t>
-  </si>
-  <si>
-    <t>SituationExercice.numeroAM</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm.use</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm.type</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm.system</t>
-  </si>
-  <si>
-    <t>https://www.ameli.fr</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm.value</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm.period</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm.assigner</t>
   </si>
   <si>
     <t>PractitionerRole.active</t>
@@ -2325,7 +2286,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO141"/>
+  <dimension ref="A1:AO132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6479,16 +6440,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>314</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>78</v>
       </c>
@@ -6500,7 +6459,7 @@
         <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>78</v>
@@ -6509,22 +6468,26 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>234</v>
+        <v>315</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>316</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O36" t="s" s="2">
-        <v>237</v>
+        <v>319</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="R36" t="s" s="2">
         <v>78</v>
       </c>
@@ -6568,13 +6531,13 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
@@ -6583,27 +6546,27 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>317</v>
+        <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>240</v>
+        <v>321</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>241</v>
+        <v>322</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>243</v>
+        <v>323</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>248</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6617,25 +6580,27 @@
         <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>105</v>
+        <v>325</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>106</v>
+        <v>326</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -6683,7 +6648,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>107</v>
+        <v>324</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6695,41 +6660,41 @@
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>108</v>
+        <v>329</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>250</v>
+        <v>332</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6741,17 +6706,15 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6788,31 +6751,31 @@
         <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -6832,46 +6795,44 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>252</v>
+        <v>333</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>253</v>
+        <v>112</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6895,52 +6856,52 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>260</v>
+        <v>118</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>261</v>
+        <v>108</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6951,10 +6912,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>263</v>
+        <v>334</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6977,20 +6938,18 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>264</v>
+        <v>335</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>265</v>
+        <v>336</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>266</v>
+        <v>337</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
@@ -7014,13 +6973,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -7038,7 +6997,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>271</v>
+        <v>339</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -7047,19 +7006,19 @@
         <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>78</v>
+        <v>341</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -7070,10 +7029,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>274</v>
+        <v>344</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7081,7 +7040,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>90</v>
@@ -7096,32 +7055,32 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>137</v>
+        <v>335</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>275</v>
+        <v>345</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="R41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>78</v>
@@ -7157,7 +7116,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>281</v>
+        <v>349</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -7166,33 +7125,33 @@
         <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>282</v>
+        <v>351</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>283</v>
+        <v>352</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>286</v>
+        <v>353</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7200,13 +7159,13 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>78</v>
@@ -7215,17 +7174,15 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>104</v>
+        <v>354</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>287</v>
+        <v>355</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -7238,7 +7195,7 @@
         <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>78</v>
@@ -7274,7 +7231,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>291</v>
+        <v>353</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7292,24 +7249,24 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>293</v>
+        <v>357</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>296</v>
+        <v>358</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7323,7 +7280,7 @@
         <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>78</v>
@@ -7332,13 +7289,13 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>297</v>
+        <v>359</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>298</v>
+        <v>360</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>299</v>
+        <v>361</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7389,7 +7346,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7407,13 +7364,13 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>301</v>
+        <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>302</v>
+        <v>362</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7421,10 +7378,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>305</v>
+        <v>363</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7435,7 +7392,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -7447,18 +7404,20 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>307</v>
+        <v>364</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>308</v>
+        <v>365</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7482,37 +7441,33 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>368</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>310</v>
+        <v>363</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
@@ -7524,13 +7479,13 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>311</v>
+        <v>369</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>312</v>
+        <v>370</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7538,12 +7493,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="D45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7564,26 +7521,24 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>328</v>
+        <v>264</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q45" t="s" s="2">
-        <v>333</v>
-      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7603,13 +7558,11 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>78</v>
+        <v>374</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -7627,13 +7580,13 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
@@ -7642,29 +7595,31 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7685,17 +7640,19 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O46" t="s" s="2">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7720,13 +7677,11 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>78</v>
+        <v>379</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -7744,13 +7699,13 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
@@ -7759,29 +7714,31 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>78</v>
+        <v>380</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>344</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7793,25 +7750,29 @@
         <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>104</v>
+        <v>264</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>105</v>
+        <v>383</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7835,13 +7796,11 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>78</v>
+        <v>384</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7859,76 +7818,80 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>107</v>
+        <v>363</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>108</v>
+        <v>370</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="D48" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>111</v>
+        <v>264</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>112</v>
+        <v>388</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>113</v>
+        <v>365</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7952,31 +7915,29 @@
         <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>78</v>
+        <v>389</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>118</v>
+        <v>363</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7988,32 +7949,34 @@
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>108</v>
+        <v>370</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>78</v>
       </c>
@@ -8025,7 +7988,7 @@
         <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>78</v>
@@ -8034,18 +7997,20 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
@@ -8069,13 +8034,11 @@
         <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>78</v>
+        <v>394</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
@@ -8093,44 +8056,46 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>353</v>
+        <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="D50" t="s" s="2">
         <v>78</v>
       </c>
@@ -8142,7 +8107,7 @@
         <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>78</v>
@@ -8151,24 +8116,24 @@
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q50" t="s" s="2">
-        <v>361</v>
-      </c>
+      <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
         <v>78</v>
       </c>
@@ -8188,13 +8153,11 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -8212,31 +8175,31 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>353</v>
+        <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>78</v>
@@ -8244,21 +8207,23 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>91</v>
@@ -8270,16 +8235,20 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O51" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -8303,13 +8272,11 @@
         <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>78</v>
+        <v>404</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>78</v>
@@ -8327,13 +8294,13 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
@@ -8342,27 +8309,27 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>78</v>
+        <v>405</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>370</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8373,10 +8340,10 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>78</v>
@@ -8385,13 +8352,13 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>372</v>
+        <v>264</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8418,13 +8385,11 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>78</v>
+        <v>409</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -8442,13 +8407,13 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
@@ -8460,13 +8425,13 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>78</v>
+        <v>410</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>78</v>
+        <v>412</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>78</v>
@@ -8474,10 +8439,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8500,20 +8465,16 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>264</v>
+        <v>414</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8537,27 +8498,31 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y53" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z53" t="s" s="2">
-        <v>381</v>
+        <v>78</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AC53" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8575,28 +8540,26 @@
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>343</v>
+        <v>418</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>78</v>
+        <v>419</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8605,7 +8568,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>91</v>
@@ -8614,23 +8577,19 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>264</v>
+        <v>421</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8654,11 +8613,13 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>387</v>
+        <v>78</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -8676,7 +8637,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8691,31 +8652,29 @@
         <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>388</v>
+        <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8724,7 +8683,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>91</v>
@@ -8733,22 +8692,20 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>264</v>
+        <v>427</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8773,29 +8730,29 @@
         <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y55" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z55" t="s" s="2">
-        <v>392</v>
+        <v>78</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8804,37 +8761,35 @@
         <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>432</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>343</v>
+        <v>436</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8846,29 +8801,25 @@
         <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>264</v>
+        <v>104</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>396</v>
+        <v>105</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8892,11 +8843,13 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y56" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z56" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -8914,80 +8867,76 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>376</v>
+        <v>107</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>398</v>
+        <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>383</v>
+        <v>108</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>264</v>
+        <v>111</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>401</v>
+        <v>112</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>378</v>
+        <v>113</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -9011,29 +8960,31 @@
         <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y57" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z57" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>376</v>
+        <v>118</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -9045,33 +8996,33 @@
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>403</v>
+        <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>383</v>
+        <v>108</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>376</v>
+        <v>438</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>78</v>
@@ -9084,29 +9035,25 @@
         <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>264</v>
+        <v>441</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
@@ -9130,11 +9077,13 @@
         <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y58" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z58" t="s" s="2">
-        <v>407</v>
+        <v>78</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
@@ -9152,7 +9101,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>376</v>
+        <v>118</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9164,46 +9113,44 @@
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>408</v>
+        <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>383</v>
+        <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>78</v>
@@ -9212,20 +9159,16 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>264</v>
+        <v>179</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
       </c>
@@ -9251,9 +9194,11 @@
       <c r="X59" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Y59" s="2"/>
+      <c r="Y59" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="Z59" t="s" s="2">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -9271,58 +9216,56 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>376</v>
+        <v>449</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>78</v>
+        <v>450</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>382</v>
+        <v>452</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>383</v>
+        <v>453</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>343</v>
+        <v>454</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>414</v>
+        <v>455</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>78</v>
@@ -9331,19 +9274,19 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>264</v>
+        <v>104</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>416</v>
+        <v>456</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>378</v>
+        <v>457</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>379</v>
+        <v>458</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>380</v>
+        <v>459</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -9368,11 +9311,13 @@
         <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y60" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z60" t="s" s="2">
-        <v>417</v>
+        <v>78</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -9390,13 +9335,13 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>376</v>
+        <v>460</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
@@ -9405,16 +9350,16 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>382</v>
+        <v>462</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>383</v>
+        <v>463</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
@@ -9422,10 +9367,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9436,28 +9381,32 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>264</v>
+        <v>179</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
       </c>
@@ -9483,9 +9432,11 @@
       <c r="X61" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Y61" s="2"/>
+      <c r="Y61" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="Z61" t="s" s="2">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -9503,13 +9454,13 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
@@ -9518,16 +9469,16 @@
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>78</v>
+        <v>472</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>78</v>
@@ -9535,10 +9486,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9549,7 +9500,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -9561,15 +9512,17 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -9618,13 +9571,13 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
@@ -9636,24 +9589,24 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>430</v>
+        <v>108</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>431</v>
+        <v>78</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>432</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9664,25 +9617,25 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J63" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K63" t="s" s="2">
-        <v>434</v>
+        <v>297</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9733,13 +9686,13 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
@@ -9751,13 +9704,13 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>437</v>
+        <v>202</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>78</v>
@@ -9765,12 +9718,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9782,7 +9737,7 @@
         <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>78</v>
@@ -9791,17 +9746,17 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9838,17 +9793,19 @@
         <v>78</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AC64" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9860,19 +9817,19 @@
         <v>212</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>446</v>
+        <v>491</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
@@ -9880,10 +9837,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>450</v>
+        <v>492</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9995,18 +9952,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>451</v>
+        <v>493</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>80</v>
@@ -10024,14 +9981,12 @@
         <v>111</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -10101,7 +10056,7 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -10112,20 +10067,20 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>90</v>
@@ -10140,13 +10095,13 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10229,10 +10184,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>457</v>
+        <v>495</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>457</v>
+        <v>496</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10240,7 +10195,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>90</v>
@@ -10252,16 +10207,16 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>458</v>
+        <v>105</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>459</v>
+        <v>106</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10288,13 +10243,13 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>460</v>
+        <v>78</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>461</v>
+        <v>78</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
@@ -10312,7 +10267,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>462</v>
+        <v>107</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10321,22 +10276,22 @@
         <v>90</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>463</v>
+        <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>464</v>
+        <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>465</v>
+        <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>466</v>
+        <v>108</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>467</v>
+        <v>78</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>78</v>
@@ -10344,10 +10299,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>468</v>
+        <v>497</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10355,10 +10310,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -10367,23 +10322,19 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>469</v>
+        <v>204</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>78</v>
       </c>
@@ -10419,43 +10370,43 @@
         <v>78</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>473</v>
+        <v>118</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>474</v>
+        <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>475</v>
+        <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>476</v>
+        <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>78</v>
@@ -10463,10 +10414,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10474,7 +10425,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>90</v>
@@ -10483,32 +10434,30 @@
         <v>78</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>78</v>
+        <v>504</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>78</v>
@@ -10526,13 +10475,13 @@
         <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>482</v>
+        <v>78</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>483</v>
+        <v>78</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>78</v>
@@ -10550,10 +10499,10 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>90</v>
@@ -10562,19 +10511,19 @@
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>485</v>
+        <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>486</v>
+        <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>487</v>
+        <v>202</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>488</v>
+        <v>78</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>78</v>
@@ -10582,10 +10531,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10605,20 +10554,18 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>490</v>
+        <v>157</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>493</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10628,7 +10575,7 @@
         <v>78</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>78</v>
+        <v>510</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>78</v>
@@ -10643,13 +10590,11 @@
         <v>78</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>78</v>
+        <v>511</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>78</v>
@@ -10667,7 +10612,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10685,10 +10630,10 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10699,12 +10644,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10722,16 +10669,16 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>297</v>
+        <v>515</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10782,31 +10729,31 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>498</v>
+        <v>118</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>499</v>
+        <v>78</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>78</v>
@@ -10814,14 +10761,12 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10830,7 +10775,7 @@
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
@@ -10842,18 +10787,16 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>502</v>
+        <v>104</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>503</v>
+        <v>105</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>442</v>
+        <v>106</v>
       </c>
       <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>443</v>
-      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10901,31 +10844,31 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>439</v>
+        <v>107</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>445</v>
+        <v>78</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>504</v>
+        <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>447</v>
+        <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>448</v>
+        <v>108</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>78</v>
@@ -10933,21 +10876,21 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10959,15 +10902,17 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -11004,31 +10949,31 @@
         <v>78</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
@@ -11048,21 +10993,23 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="D75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
@@ -11077,7 +11024,7 @@
         <v>111</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>204</v>
+        <v>522</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>205</v>
@@ -11119,16 +11066,16 @@
         <v>78</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>118</v>
@@ -11163,20 +11110,18 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>90</v>
@@ -11191,13 +11136,13 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>454</v>
+        <v>104</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>455</v>
+        <v>105</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>456</v>
+        <v>106</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11248,19 +11193,19 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
@@ -11269,7 +11214,7 @@
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -11280,10 +11225,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11294,7 +11239,7 @@
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
@@ -11306,13 +11251,13 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11351,31 +11296,31 @@
         <v>78</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
@@ -11384,7 +11329,7 @@
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -11395,10 +11340,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11406,10 +11351,10 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
@@ -11421,22 +11366,24 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>204</v>
+        <v>501</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>78</v>
+        <v>521</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>78</v>
@@ -11466,31 +11413,31 @@
         <v>78</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>118</v>
+        <v>505</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
@@ -11499,7 +11446,7 @@
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11510,10 +11457,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11521,7 +11468,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>90</v>
@@ -11536,24 +11483,22 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>137</v>
+        <v>264</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>517</v>
+        <v>78</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>78</v>
@@ -11571,13 +11516,11 @@
         <v>78</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="Y79" s="2"/>
       <c r="Z79" t="s" s="2">
-        <v>78</v>
+        <v>531</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>78</v>
@@ -11595,10 +11538,10 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>90</v>
@@ -11607,7 +11550,7 @@
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
@@ -11627,12 +11570,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="D80" t="s" s="2">
         <v>78</v>
       </c>
@@ -11653,13 +11598,13 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>521</v>
+        <v>204</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>522</v>
+        <v>205</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11671,7 +11616,7 @@
         <v>78</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>523</v>
+        <v>78</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>78</v>
@@ -11686,11 +11631,13 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y80" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z80" t="s" s="2">
-        <v>524</v>
+        <v>78</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>78</v>
@@ -11708,19 +11655,19 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>525</v>
+        <v>118</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
@@ -11729,7 +11676,7 @@
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11740,14 +11687,12 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>527</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
         <v>78</v>
       </c>
@@ -11768,13 +11713,13 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>528</v>
+        <v>104</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>529</v>
+        <v>105</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>530</v>
+        <v>106</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11825,19 +11770,19 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
@@ -11846,7 +11791,7 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11857,10 +11802,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11871,7 +11816,7 @@
         <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
@@ -11883,13 +11828,13 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11928,31 +11873,31 @@
         <v>78</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
@@ -11961,7 +11906,7 @@
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11972,21 +11917,21 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>78</v>
@@ -11998,16 +11943,16 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>112</v>
+        <v>501</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>113</v>
+        <v>502</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>114</v>
+        <v>503</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12015,7 +11960,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>78</v>
+        <v>533</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>78</v>
@@ -12045,31 +11990,31 @@
         <v>78</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>118</v>
+        <v>505</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
@@ -12078,7 +12023,7 @@
         <v>78</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -12089,14 +12034,12 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
         <v>78</v>
       </c>
@@ -12117,13 +12060,13 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>535</v>
+        <v>508</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>205</v>
+        <v>509</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12174,19 +12117,19 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>118</v>
+        <v>512</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
@@ -12195,7 +12138,7 @@
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -12206,12 +12149,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="C85" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="D85" t="s" s="2">
         <v>78</v>
       </c>
@@ -12232,13 +12177,13 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>105</v>
+        <v>540</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12289,19 +12234,19 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
@@ -12310,7 +12255,7 @@
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -12321,10 +12266,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12335,7 +12280,7 @@
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>78</v>
@@ -12347,13 +12292,13 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12392,31 +12337,31 @@
         <v>78</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
@@ -12425,7 +12370,7 @@
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12436,10 +12381,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12447,10 +12392,10 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>78</v>
@@ -12462,24 +12407,22 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>514</v>
+        <v>204</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
-        <v>534</v>
+        <v>78</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>78</v>
@@ -12509,31 +12452,31 @@
         <v>78</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>518</v>
+        <v>118</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>78</v>
@@ -12542,7 +12485,7 @@
         <v>78</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12553,10 +12496,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12564,7 +12507,7 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>90</v>
@@ -12579,22 +12522,24 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>264</v>
+        <v>137</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>78</v>
+        <v>539</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>78</v>
@@ -12612,11 +12557,13 @@
         <v>78</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y88" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z88" t="s" s="2">
-        <v>544</v>
+        <v>78</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>78</v>
@@ -12634,10 +12581,10 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>90</v>
@@ -12646,7 +12593,7 @@
         <v>78</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>78</v>
@@ -12666,14 +12613,12 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>546</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
         <v>78</v>
       </c>
@@ -12694,13 +12639,13 @@
         <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>204</v>
+        <v>508</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>205</v>
+        <v>509</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12751,19 +12696,19 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>118</v>
+        <v>512</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
@@ -12772,7 +12717,7 @@
         <v>78</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>78</v>
@@ -12783,12 +12728,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>546</v>
+      </c>
       <c r="D90" t="s" s="2">
         <v>78</v>
       </c>
@@ -12809,13 +12756,13 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12866,19 +12813,19 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
@@ -12887,7 +12834,7 @@
         <v>78</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
@@ -12898,10 +12845,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12912,7 +12859,7 @@
         <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>78</v>
@@ -12924,13 +12871,13 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12969,31 +12916,31 @@
         <v>78</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
@@ -13002,7 +12949,7 @@
         <v>78</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>78</v>
@@ -13013,10 +12960,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13024,10 +12971,10 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>78</v>
@@ -13039,24 +12986,22 @@
         <v>78</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>514</v>
+        <v>204</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q92" s="2"/>
       <c r="R92" t="s" s="2">
-        <v>546</v>
+        <v>78</v>
       </c>
       <c r="S92" t="s" s="2">
         <v>78</v>
@@ -13086,31 +13031,31 @@
         <v>78</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>518</v>
+        <v>118</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>78</v>
@@ -13119,7 +13064,7 @@
         <v>78</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -13130,10 +13075,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13141,7 +13086,7 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>90</v>
@@ -13156,22 +13101,24 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>78</v>
+        <v>546</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>78</v>
@@ -13213,10 +13160,10 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>90</v>
@@ -13225,7 +13172,7 @@
         <v>78</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>78</v>
@@ -13245,14 +13192,12 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
         <v>78</v>
       </c>
@@ -13273,13 +13218,13 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>553</v>
+        <v>508</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>205</v>
+        <v>509</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13330,19 +13275,19 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>118</v>
+        <v>512</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>78</v>
@@ -13351,7 +13296,7 @@
         <v>78</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -13362,12 +13307,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="D95" t="s" s="2">
         <v>78</v>
       </c>
@@ -13388,13 +13335,13 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>105</v>
+        <v>553</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13445,19 +13392,19 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>78</v>
@@ -13466,7 +13413,7 @@
         <v>78</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>78</v>
@@ -13477,10 +13424,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13491,7 +13438,7 @@
         <v>79</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>78</v>
@@ -13503,13 +13450,13 @@
         <v>78</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13548,31 +13495,31 @@
         <v>78</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>78</v>
@@ -13581,7 +13528,7 @@
         <v>78</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>78</v>
@@ -13592,10 +13539,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13603,10 +13550,10 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>78</v>
@@ -13618,24 +13565,22 @@
         <v>78</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>514</v>
+        <v>204</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q97" s="2"/>
       <c r="R97" t="s" s="2">
-        <v>552</v>
+        <v>78</v>
       </c>
       <c r="S97" t="s" s="2">
         <v>78</v>
@@ -13665,31 +13610,31 @@
         <v>78</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>518</v>
+        <v>118</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>78</v>
@@ -13698,7 +13643,7 @@
         <v>78</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>78</v>
@@ -13709,10 +13654,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13720,7 +13665,7 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>90</v>
@@ -13735,22 +13680,24 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>78</v>
+        <v>552</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>78</v>
@@ -13792,10 +13739,10 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>90</v>
@@ -13804,7 +13751,7 @@
         <v>78</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>78</v>
@@ -13824,14 +13771,12 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
         <v>78</v>
       </c>
@@ -13852,13 +13797,13 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>204</v>
+        <v>508</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>205</v>
+        <v>509</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13909,19 +13854,19 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>118</v>
+        <v>512</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>78</v>
@@ -13930,7 +13875,7 @@
         <v>78</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>78</v>
@@ -13941,12 +13886,14 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="C100" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>559</v>
+      </c>
       <c r="D100" t="s" s="2">
         <v>78</v>
       </c>
@@ -13967,13 +13914,13 @@
         <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14024,19 +13971,19 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>78</v>
@@ -14045,7 +13992,7 @@
         <v>78</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>78</v>
@@ -14056,10 +14003,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14070,7 +14017,7 @@
         <v>79</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>78</v>
@@ -14082,13 +14029,13 @@
         <v>78</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14127,31 +14074,31 @@
         <v>78</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC101" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>78</v>
@@ -14160,7 +14107,7 @@
         <v>78</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>78</v>
@@ -14171,10 +14118,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14182,10 +14129,10 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>78</v>
@@ -14197,24 +14144,22 @@
         <v>78</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>514</v>
+        <v>204</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" t="s" s="2">
-        <v>559</v>
+        <v>78</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>78</v>
@@ -14244,31 +14189,31 @@
         <v>78</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>518</v>
+        <v>118</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>78</v>
@@ -14277,7 +14222,7 @@
         <v>78</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>78</v>
@@ -14288,10 +14233,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14299,7 +14244,7 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>90</v>
@@ -14314,22 +14259,24 @@
         <v>78</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>78</v>
+        <v>559</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>78</v>
@@ -14371,10 +14318,10 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>90</v>
@@ -14383,7 +14330,7 @@
         <v>78</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>78</v>
@@ -14403,14 +14350,12 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>565</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
         <v>78</v>
       </c>
@@ -14431,13 +14376,13 @@
         <v>78</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>111</v>
+        <v>315</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>566</v>
+        <v>508</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>205</v>
+        <v>509</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14488,19 +14433,19 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>118</v>
+        <v>512</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>78</v>
@@ -14509,7 +14454,7 @@
         <v>78</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>78</v>
@@ -14520,12 +14465,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="C105" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="D105" t="s" s="2">
         <v>78</v>
       </c>
@@ -14546,13 +14493,13 @@
         <v>78</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14603,19 +14550,19 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>78</v>
@@ -14624,7 +14571,7 @@
         <v>78</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>78</v>
@@ -14635,10 +14582,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14649,7 +14596,7 @@
         <v>79</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>78</v>
@@ -14661,13 +14608,13 @@
         <v>78</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14706,31 +14653,31 @@
         <v>78</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC106" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>78</v>
@@ -14739,7 +14686,7 @@
         <v>78</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>78</v>
@@ -14750,10 +14697,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14761,10 +14708,10 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>78</v>
@@ -14776,24 +14723,22 @@
         <v>78</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>514</v>
+        <v>204</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N107" s="2"/>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q107" s="2"/>
       <c r="R107" t="s" s="2">
-        <v>565</v>
+        <v>78</v>
       </c>
       <c r="S107" t="s" s="2">
         <v>78</v>
@@ -14823,31 +14768,31 @@
         <v>78</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC107" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>518</v>
+        <v>118</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>78</v>
@@ -14856,7 +14801,7 @@
         <v>78</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>78</v>
@@ -14867,10 +14812,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14878,7 +14823,7 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>90</v>
@@ -14893,22 +14838,24 @@
         <v>78</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>78</v>
+        <v>565</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>78</v>
@@ -14950,10 +14897,10 @@
         <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>90</v>
@@ -14962,7 +14909,7 @@
         <v>78</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>78</v>
@@ -14982,14 +14929,12 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C109" t="s" s="2">
-        <v>572</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
         <v>78</v>
       </c>
@@ -15010,13 +14955,13 @@
         <v>78</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>111</v>
+        <v>315</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>204</v>
+        <v>508</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>205</v>
+        <v>509</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -15067,19 +15012,19 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>118</v>
+        <v>512</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>78</v>
@@ -15088,7 +15033,7 @@
         <v>78</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>78</v>
@@ -15099,10 +15044,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>537</v>
+        <v>500</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15110,7 +15055,7 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>90</v>
@@ -15125,22 +15070,24 @@
         <v>78</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>105</v>
+        <v>501</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q110" s="2"/>
       <c r="R110" t="s" s="2">
-        <v>78</v>
+        <v>571</v>
       </c>
       <c r="S110" t="s" s="2">
         <v>78</v>
@@ -15182,10 +15129,10 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>107</v>
+        <v>505</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>90</v>
@@ -15203,7 +15150,7 @@
         <v>78</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>78</v>
@@ -15214,10 +15161,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>539</v>
+        <v>507</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15240,13 +15187,13 @@
         <v>78</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>111</v>
+        <v>573</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>204</v>
+        <v>508</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>205</v>
+        <v>509</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -15285,31 +15232,31 @@
         <v>78</v>
       </c>
       <c r="AB111" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC111" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>118</v>
+        <v>512</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>78</v>
@@ -15318,7 +15265,7 @@
         <v>78</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>78</v>
@@ -15329,10 +15276,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>541</v>
+        <v>444</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15352,30 +15299,28 @@
         <v>78</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>514</v>
+        <v>445</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="N112" s="2"/>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q112" s="2"/>
       <c r="R112" t="s" s="2">
-        <v>572</v>
+        <v>78</v>
       </c>
       <c r="S112" t="s" s="2">
-        <v>78</v>
+        <v>575</v>
       </c>
       <c r="T112" t="s" s="2">
         <v>78</v>
@@ -15390,13 +15335,13 @@
         <v>78</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>78</v>
+        <v>447</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>78</v>
+        <v>448</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>78</v>
@@ -15414,42 +15359,42 @@
         <v>78</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>518</v>
+        <v>449</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>78</v>
+        <v>450</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>78</v>
+        <v>451</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>202</v>
+        <v>453</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>78</v>
+        <v>454</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
         <v>576</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>543</v>
+        <v>455</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15457,31 +15402,35 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>328</v>
+        <v>104</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>521</v>
+        <v>577</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="P113" t="s" s="2">
         <v>78</v>
       </c>
@@ -15529,7 +15478,7 @@
         <v>78</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>525</v>
+        <v>460</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
@@ -15544,16 +15493,16 @@
         <v>102</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>78</v>
+        <v>461</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>78</v>
+        <v>462</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>202</v>
+        <v>463</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>78</v>
@@ -15561,14 +15510,12 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C114" t="s" s="2">
-        <v>578</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
         <v>78</v>
       </c>
@@ -15583,22 +15530,26 @@
         <v>78</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>204</v>
+        <v>465</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="P114" t="s" s="2">
         <v>78</v>
       </c>
@@ -15622,13 +15573,13 @@
         <v>78</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>78</v>
+        <v>469</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>78</v>
+        <v>470</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>78</v>
@@ -15646,31 +15597,31 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>118</v>
+        <v>471</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>78</v>
+        <v>472</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>78</v>
+        <v>473</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>78</v>
+        <v>474</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>78</v>
+        <v>475</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>78</v>
@@ -15681,7 +15632,7 @@
         <v>579</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>537</v>
+        <v>476</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15701,18 +15652,20 @@
         <v>78</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>104</v>
+        <v>477</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>105</v>
+        <v>478</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N115" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>78</v>
@@ -15761,7 +15714,7 @@
         <v>78</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>107</v>
+        <v>481</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -15773,13 +15726,13 @@
         <v>78</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>108</v>
@@ -15796,7 +15749,7 @@
         <v>580</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>539</v>
+        <v>482</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15807,7 +15760,7 @@
         <v>79</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>78</v>
@@ -15816,16 +15769,16 @@
         <v>78</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>111</v>
+        <v>297</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>204</v>
+        <v>483</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>205</v>
+        <v>484</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -15864,54 +15817,54 @@
         <v>78</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC116" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD116" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>118</v>
+        <v>485</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>78</v>
+        <v>486</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="117" hidden="true">
+    <row r="117">
       <c r="A117" t="s" s="2">
         <v>581</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>541</v>
+        <v>581</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15919,13 +15872,13 @@
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I117" t="s" s="2">
         <v>78</v>
@@ -15934,16 +15887,16 @@
         <v>78</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>137</v>
+        <v>582</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>514</v>
+        <v>583</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>515</v>
+        <v>584</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>516</v>
+        <v>585</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -15951,7 +15904,7 @@
       </c>
       <c r="Q117" s="2"/>
       <c r="R117" t="s" s="2">
-        <v>578</v>
+        <v>78</v>
       </c>
       <c r="S117" t="s" s="2">
         <v>78</v>
@@ -15993,19 +15946,19 @@
         <v>78</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>518</v>
+        <v>581</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>78</v>
@@ -16014,7 +15967,7 @@
         <v>78</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>202</v>
+        <v>586</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>78</v>
@@ -16025,10 +15978,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>543</v>
+        <v>587</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16051,13 +16004,13 @@
         <v>78</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>328</v>
+        <v>104</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>521</v>
+        <v>105</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>522</v>
+        <v>106</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -16108,7 +16061,7 @@
         <v>78</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>525</v>
+        <v>107</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>79</v>
@@ -16120,7 +16073,7 @@
         <v>78</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>78</v>
@@ -16129,7 +16082,7 @@
         <v>78</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>78</v>
@@ -16140,21 +16093,21 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>513</v>
+        <v>588</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>78</v>
@@ -16166,16 +16119,16 @@
         <v>78</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>514</v>
+        <v>112</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>515</v>
+        <v>113</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>516</v>
+        <v>114</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
@@ -16183,7 +16136,7 @@
       </c>
       <c r="Q119" s="2"/>
       <c r="R119" t="s" s="2">
-        <v>584</v>
+        <v>78</v>
       </c>
       <c r="S119" t="s" s="2">
         <v>78</v>
@@ -16225,19 +16178,19 @@
         <v>78</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>518</v>
+        <v>118</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>78</v>
@@ -16246,7 +16199,7 @@
         <v>78</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>78</v>
@@ -16257,42 +16210,46 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>520</v>
+        <v>589</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>78</v>
+        <v>590</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>586</v>
+        <v>111</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>521</v>
+        <v>591</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
+        <v>592</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P120" t="s" s="2">
         <v>78</v>
       </c>
@@ -16340,19 +16297,19 @@
         <v>78</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>525</v>
+        <v>593</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>78</v>
@@ -16372,10 +16329,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>457</v>
+        <v>594</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16383,10 +16340,10 @@
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>78</v>
@@ -16395,16 +16352,16 @@
         <v>78</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K121" t="s" s="2">
         <v>179</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>458</v>
+        <v>595</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>459</v>
+        <v>596</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -16416,7 +16373,7 @@
         <v>78</v>
       </c>
       <c r="S121" t="s" s="2">
-        <v>588</v>
+        <v>78</v>
       </c>
       <c r="T121" t="s" s="2">
         <v>78</v>
@@ -16434,10 +16391,10 @@
         <v>257</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>460</v>
+        <v>597</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>461</v>
+        <v>598</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>78</v>
@@ -16455,42 +16412,42 @@
         <v>78</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>462</v>
+        <v>594</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>463</v>
+        <v>78</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>464</v>
+        <v>78</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>465</v>
+        <v>78</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>466</v>
+        <v>586</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>467</v>
+        <v>78</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>468</v>
+        <v>599</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16498,35 +16455,31 @@
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I122" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>104</v>
+        <v>315</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>78</v>
       </c>
@@ -16574,7 +16527,7 @@
         <v>78</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>473</v>
+        <v>599</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -16589,16 +16542,16 @@
         <v>102</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>474</v>
+        <v>78</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>475</v>
+        <v>78</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>476</v>
+        <v>586</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>78</v>
@@ -16606,10 +16559,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>477</v>
+        <v>602</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16626,26 +16579,24 @@
         <v>78</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>179</v>
+        <v>603</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>478</v>
+        <v>604</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>479</v>
+        <v>605</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>78</v>
       </c>
@@ -16669,13 +16620,13 @@
         <v>78</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>482</v>
+        <v>78</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>483</v>
+        <v>78</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>78</v>
@@ -16693,7 +16644,7 @@
         <v>78</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>484</v>
+        <v>602</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -16708,16 +16659,16 @@
         <v>102</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>485</v>
+        <v>78</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>486</v>
+        <v>78</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>487</v>
+        <v>586</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>488</v>
+        <v>78</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>78</v>
@@ -16725,10 +16676,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>489</v>
+        <v>607</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16748,19 +16699,19 @@
         <v>78</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>490</v>
+        <v>603</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>491</v>
+        <v>608</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>492</v>
+        <v>609</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>493</v>
+        <v>606</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -16810,7 +16761,7 @@
         <v>78</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>494</v>
+        <v>607</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>79</v>
@@ -16828,10 +16779,10 @@
         <v>78</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>108</v>
+        <v>586</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>78</v>
@@ -16840,12 +16791,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="125" hidden="true">
+    <row r="125">
       <c r="A125" t="s" s="2">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>495</v>
+        <v>610</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16856,25 +16807,25 @@
         <v>79</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>297</v>
+        <v>582</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>496</v>
+        <v>611</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>497</v>
+        <v>612</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -16925,13 +16876,13 @@
         <v>78</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>498</v>
+        <v>610</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>78</v>
@@ -16943,24 +16894,24 @@
         <v>78</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>499</v>
+        <v>586</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16971,10 +16922,10 @@
         <v>79</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H126" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I126" t="s" s="2">
         <v>78</v>
@@ -16983,17 +16934,15 @@
         <v>78</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>595</v>
+        <v>104</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>596</v>
+        <v>105</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>598</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N126" s="2"/>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
         <v>78</v>
@@ -17042,19 +16991,19 @@
         <v>78</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>594</v>
+        <v>107</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>78</v>
@@ -17063,7 +17012,7 @@
         <v>78</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>599</v>
+        <v>108</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>78</v>
@@ -17074,21 +17023,21 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>78</v>
@@ -17100,15 +17049,17 @@
         <v>78</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N127" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>78</v>
@@ -17157,19 +17108,19 @@
         <v>78</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI127" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>78</v>
@@ -17189,14 +17140,14 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>110</v>
+        <v>590</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
@@ -17209,24 +17160,26 @@
         <v>78</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K128" t="s" s="2">
         <v>111</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>112</v>
+        <v>591</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>113</v>
+        <v>592</v>
       </c>
       <c r="N128" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="O128" s="2"/>
+      <c r="O128" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P128" t="s" s="2">
         <v>78</v>
       </c>
@@ -17274,7 +17227,7 @@
         <v>78</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>118</v>
+        <v>593</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>79</v>
@@ -17295,7 +17248,7 @@
         <v>78</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>78</v>
@@ -17306,46 +17259,42 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>603</v>
+        <v>78</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
         <v>78</v>
       </c>
@@ -17393,19 +17342,19 @@
         <v>78</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>78</v>
@@ -17414,7 +17363,7 @@
         <v>78</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>78</v>
@@ -17425,10 +17374,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17439,7 +17388,7 @@
         <v>79</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>78</v>
@@ -17451,13 +17400,13 @@
         <v>78</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>179</v>
+        <v>297</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -17484,13 +17433,13 @@
         <v>78</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>610</v>
+        <v>78</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>611</v>
+        <v>78</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>78</v>
@@ -17508,13 +17457,13 @@
         <v>78</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>78</v>
@@ -17529,7 +17478,7 @@
         <v>78</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>78</v>
@@ -17538,12 +17487,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="131" hidden="true">
+    <row r="131">
       <c r="A131" t="s" s="2">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17554,10 +17503,10 @@
         <v>79</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I131" t="s" s="2">
         <v>78</v>
@@ -17566,13 +17515,13 @@
         <v>78</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>328</v>
+        <v>104</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -17623,7 +17572,7 @@
         <v>78</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>79</v>
@@ -17644,7 +17593,7 @@
         <v>78</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>78</v>
@@ -17653,12 +17602,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="132" hidden="true">
+    <row r="132">
       <c r="A132" t="s" s="2">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17669,10 +17618,10 @@
         <v>79</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I132" t="s" s="2">
         <v>78</v>
@@ -17681,18 +17630,18 @@
         <v>78</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="O132" s="2"/>
+        <v>628</v>
+      </c>
+      <c r="N132" s="2"/>
+      <c r="O132" t="s" s="2">
+        <v>629</v>
+      </c>
       <c r="P132" t="s" s="2">
         <v>78</v>
       </c>
@@ -17740,13 +17689,13 @@
         <v>78</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>78</v>
@@ -17761,1062 +17710,17 @@
         <v>78</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>599</v>
+        <v>108</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO132" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="133" hidden="true">
-      <c r="A133" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="B133" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="C133" s="2"/>
-      <c r="D133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E133" s="2"/>
-      <c r="F133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="O133" s="2"/>
-      <c r="P133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q133" s="2"/>
-      <c r="R133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO133" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="C134" s="2"/>
-      <c r="D134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E134" s="2"/>
-      <c r="F134" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
-      <c r="P134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q134" s="2"/>
-      <c r="R134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="AN134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO134" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="135" hidden="true">
-      <c r="A135" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="B135" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E135" s="2"/>
-      <c r="F135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N135" s="2"/>
-      <c r="O135" s="2"/>
-      <c r="P135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q135" s="2"/>
-      <c r="R135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO135" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="136" hidden="true">
-      <c r="A136" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="C136" s="2"/>
-      <c r="D136" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="E136" s="2"/>
-      <c r="F136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O136" s="2"/>
-      <c r="P136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q136" s="2"/>
-      <c r="R136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AN136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO136" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="137" hidden="true">
-      <c r="A137" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="C137" s="2"/>
-      <c r="D137" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="E137" s="2"/>
-      <c r="F137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G137" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I137" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J137" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K137" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O137" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="P137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q137" s="2"/>
-      <c r="R137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF137" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="AG137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH137" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ137" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM137" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AN137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO137" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="138" hidden="true">
-      <c r="A138" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="B138" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="C138" s="2"/>
-      <c r="D138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E138" s="2"/>
-      <c r="F138" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G138" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K138" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
-      <c r="P138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q138" s="2"/>
-      <c r="R138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="AG138" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH138" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ138" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM138" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AN138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO138" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="139" hidden="true">
-      <c r="A139" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E139" s="2"/>
-      <c r="F139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G139" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K139" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="N139" s="2"/>
-      <c r="O139" s="2"/>
-      <c r="P139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q139" s="2"/>
-      <c r="R139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH139" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ139" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM139" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="AN139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO139" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E140" s="2"/>
-      <c r="F140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="N140" s="2"/>
-      <c r="O140" s="2"/>
-      <c r="P140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q140" s="2"/>
-      <c r="R140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF140" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="AG140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH140" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ140" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM140" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="AN140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO140" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="B141" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E141" s="2"/>
-      <c r="F141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="N141" s="2"/>
-      <c r="O141" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="P141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q141" s="2"/>
-      <c r="R141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH141" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ141" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM141" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AN141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO141" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO141">
+  <autoFilter ref="A1:AO132">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18826,7 +17730,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI140">
+  <conditionalFormatting sqref="A2:AI131">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitionerrole.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$124</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4890" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4595" uniqueCount="628">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T13:03:27+00:00</t>
+    <t>2025-10-10T07:08:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1373,13 +1373,35 @@
     <t>ContactPoint</t>
   </si>
   <si>
+    <t>PractitionerRole.telecom:mailbox-mss</t>
+  </si>
+  <si>
+    <t>mailbox-mss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-mailbox-mss}
+</t>
+  </si>
+  <si>
+    <t>BALs MSS de type PER rattachés à l'identifiant du professionnel de santé  ainsi qu'au lieu de sa situation d'exercice (BoiteLettreMSS).</t>
+  </si>
+  <si>
+    <t>SituationExercice.boiteLettresMSS</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom:mailbox-mss.id</t>
+  </si>
+  <si>
     <t>PractitionerRole.telecom.id</t>
   </si>
   <si>
+    <t>PractitionerRole.telecom:mailbox-mss.extension</t>
+  </si>
+  <si>
     <t>PractitionerRole.telecom.extension</t>
   </si>
   <si>
-    <t>PractitionerRole.telecom.extension:emailType</t>
+    <t>PractitionerRole.telecom:mailbox-mss.extension:emailType</t>
   </si>
   <si>
     <t>emailType</t>
@@ -1393,162 +1415,6 @@
   </si>
   <si>
     <t>Extension on the ContactPoint datatype. This extension allows to specify the type of mail used to contact the person (MSSsanté|Apicrypt|OSM|Autre).</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpt-2
-</t>
-  </si>
-  <si>
-    <t>SituationExercice.telecommunication.canal</t>
-  </si>
-  <si>
-    <t>XTN.3</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>./ContactPointType</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>SituationExercice.telecommunication.adresseTelecom</t>
-  </si>
-  <si>
-    <t>XTN.1 (or XTN.12)</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>SituationExercice.telecommunication.utilisation</t>
-  </si>
-  <si>
-    <t>XTN.2 - but often indicated by field</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>./ContactPointPurpose</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.period</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom:mailbox-mss</t>
-  </si>
-  <si>
-    <t>mailbox-mss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-mailbox-mss}
-</t>
-  </si>
-  <si>
-    <t>BALs MSS de type PER rattachés à l'identifiant du professionnel de santé  ainsi qu'au lieu de sa situation d'exercice (BoiteLettreMSS).</t>
-  </si>
-  <si>
-    <t>SituationExercice.boiteLettresMSS</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom:mailbox-mss.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom:mailbox-mss.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom:mailbox-mss.extension:emailType</t>
   </si>
   <si>
     <t>PractitionerRole.telecom:mailbox-mss.extension:emailType.id</t>
@@ -1797,22 +1663,150 @@
     <t>PractitionerRole.telecom:mailbox-mss.system</t>
   </si>
   <si>
+    <t>PractitionerRole.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
+    <t>Telecommunications form for contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
+</t>
+  </si>
+  <si>
+    <t>SituationExercice.telecommunication.canal</t>
+  </si>
+  <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>./ContactPointType</t>
+  </si>
+  <si>
     <t>PractitionerRole.telecom:mailbox-mss.value</t>
   </si>
   <si>
+    <t>PractitionerRole.telecom.value</t>
+  </si>
+  <si>
     <t>Boîte Aux Lettres (BAL) MSS</t>
   </si>
   <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>SituationExercice.telecommunication.adresseTelecom</t>
+  </si>
+  <si>
+    <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
     <t>PractitionerRole.telecom:mailbox-mss.use</t>
   </si>
   <si>
+    <t>PractitionerRole.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>Use of contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>SituationExercice.telecommunication.utilisation</t>
+  </si>
+  <si>
+    <t>XTN.2 - but often indicated by field</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./ContactPointPurpose</t>
+  </si>
+  <si>
     <t>PractitionerRole.telecom:mailbox-mss.rank</t>
   </si>
   <si>
+    <t>PractitionerRole.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
     <t>PractitionerRole.telecom:mailbox-mss.period</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.period</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
+  </si>
+  <si>
+    <t>ContactPoint.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
   </si>
   <si>
     <t>PractitionerRole.availableTime</t>
@@ -2286,7 +2280,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO132"/>
+  <dimension ref="A1:AO124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8787,9 +8781,11 @@
         <v>437</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8798,7 +8794,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8810,16 +8806,18 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>104</v>
+        <v>439</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>105</v>
+        <v>440</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>106</v>
+        <v>429</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8867,31 +8865,31 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>107</v>
+        <v>426</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>78</v>
+        <v>432</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>78</v>
+        <v>441</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>78</v>
+        <v>434</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>108</v>
+        <v>435</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>78</v>
+        <v>436</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>78</v>
@@ -8899,21 +8897,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -8925,17 +8923,15 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8972,31 +8968,31 @@
         <v>78</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
@@ -9016,23 +9012,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -9044,13 +9038,13 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>441</v>
+        <v>111</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>442</v>
+        <v>204</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>443</v>
+        <v>205</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9089,16 +9083,16 @@
         <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>118</v>
@@ -9133,12 +9127,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>78</v>
       </c>
@@ -9156,16 +9152,16 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>179</v>
+        <v>448</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9192,13 +9188,13 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>447</v>
+        <v>78</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>448</v>
+        <v>78</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -9216,31 +9212,31 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>449</v>
+        <v>118</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>450</v>
+        <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>452</v>
+        <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>453</v>
+        <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>454</v>
+        <v>78</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
@@ -9248,10 +9244,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9259,7 +9255,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>90</v>
@@ -9271,23 +9267,19 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>104</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>456</v>
+        <v>105</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
       </c>
@@ -9335,7 +9327,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>460</v>
+        <v>107</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9347,19 +9339,19 @@
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>461</v>
+        <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>462</v>
+        <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>463</v>
+        <v>108</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
@@ -9367,10 +9359,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9381,32 +9373,28 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>465</v>
+        <v>204</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
       </c>
@@ -9430,55 +9418,55 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>469</v>
+        <v>78</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>470</v>
+        <v>78</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>471</v>
+        <v>118</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>472</v>
+        <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>473</v>
+        <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>474</v>
+        <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>475</v>
+        <v>78</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>78</v>
@@ -9486,10 +9474,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9497,7 +9485,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>90</v>
@@ -9509,19 +9497,19 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>477</v>
+        <v>137</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9529,7 +9517,7 @@
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
-        <v>78</v>
+        <v>460</v>
       </c>
       <c r="S62" t="s" s="2">
         <v>78</v>
@@ -9571,10 +9559,10 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>90</v>
@@ -9583,16 +9571,16 @@
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9603,10 +9591,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9626,16 +9614,16 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>297</v>
+        <v>157</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9647,7 +9635,7 @@
         <v>78</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>78</v>
+        <v>466</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>78</v>
@@ -9662,13 +9650,11 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>78</v>
+        <v>467</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -9686,7 +9672,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9704,13 +9690,13 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AM63" t="s" s="2">
-        <v>486</v>
-      </c>
       <c r="AN63" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>78</v>
@@ -9718,13 +9704,13 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>78</v>
@@ -9734,7 +9720,7 @@
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
@@ -9746,18 +9732,16 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>430</v>
-      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9805,7 +9789,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>426</v>
+        <v>118</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9814,22 +9798,22 @@
         <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>432</v>
+        <v>119</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>435</v>
+        <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>436</v>
+        <v>78</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
@@ -9837,10 +9821,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9952,18 +9936,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>80</v>
@@ -9981,12 +9965,14 @@
         <v>111</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -10056,7 +10042,7 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -10067,20 +10053,20 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>440</v>
+        <v>477</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>90</v>
@@ -10095,13 +10081,13 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>441</v>
+        <v>111</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>443</v>
+        <v>205</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10184,10 +10170,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10299,10 +10285,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10414,10 +10400,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10443,13 +10429,13 @@
         <v>137</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>502</v>
+        <v>458</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>503</v>
+        <v>459</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10457,7 +10443,7 @@
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>504</v>
+        <v>477</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>78</v>
@@ -10499,7 +10485,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>505</v>
+        <v>461</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>90</v>
@@ -10531,10 +10517,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10557,13 +10543,13 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>508</v>
+        <v>464</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>509</v>
+        <v>465</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10575,7 +10561,7 @@
         <v>78</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>510</v>
+        <v>78</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>78</v>
@@ -10590,11 +10576,11 @@
         <v>78</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>78</v>
@@ -10612,7 +10598,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10644,13 +10630,13 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>78</v>
@@ -10672,13 +10658,13 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>515</v>
+        <v>111</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>516</v>
+        <v>204</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>517</v>
+        <v>205</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10761,10 +10747,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10876,21 +10862,21 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10905,14 +10891,12 @@
         <v>111</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10982,7 +10966,7 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10993,20 +10977,18 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>90</v>
@@ -11021,22 +11003,24 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>522</v>
+        <v>457</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q75" s="2"/>
       <c r="R75" t="s" s="2">
-        <v>78</v>
+        <v>489</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>78</v>
@@ -11078,19 +11062,19 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>118</v>
+        <v>461</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
@@ -11099,7 +11083,7 @@
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -11110,10 +11094,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11139,10 +11123,10 @@
         <v>104</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>105</v>
+        <v>464</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>106</v>
+        <v>465</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11193,7 +11177,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>107</v>
+        <v>468</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11205,7 +11189,7 @@
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
@@ -11214,7 +11198,7 @@
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -11225,12 +11209,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>525</v>
+        <v>494</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="D77" t="s" s="2">
         <v>78</v>
       </c>
@@ -11239,7 +11225,7 @@
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
@@ -11254,7 +11240,7 @@
         <v>111</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>204</v>
+        <v>496</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>205</v>
@@ -11296,16 +11282,16 @@
         <v>78</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>118</v>
@@ -11340,10 +11326,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>528</v>
+        <v>480</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11351,7 +11337,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>90</v>
@@ -11366,24 +11352,22 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>501</v>
+        <v>105</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>521</v>
+        <v>78</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>78</v>
@@ -11425,10 +11409,10 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>505</v>
+        <v>107</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>90</v>
@@ -11446,7 +11430,7 @@
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11457,10 +11441,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>529</v>
+        <v>498</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>530</v>
+        <v>482</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11471,7 +11455,7 @@
         <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>78</v>
@@ -11483,13 +11467,13 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>264</v>
+        <v>111</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>508</v>
+        <v>204</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>509</v>
+        <v>205</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11516,41 +11500,43 @@
         <v>78</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y79" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z79" t="s" s="2">
-        <v>531</v>
+        <v>78</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>512</v>
+        <v>118</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
@@ -11559,7 +11545,7 @@
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11570,20 +11556,18 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>532</v>
+        <v>499</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>90</v>
@@ -11598,22 +11582,24 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>204</v>
+        <v>457</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q80" s="2"/>
       <c r="R80" t="s" s="2">
-        <v>78</v>
+        <v>495</v>
       </c>
       <c r="S80" t="s" s="2">
         <v>78</v>
@@ -11655,19 +11641,19 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>118</v>
+        <v>461</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
@@ -11676,7 +11662,7 @@
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11687,10 +11673,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>534</v>
+        <v>500</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11716,10 +11702,10 @@
         <v>104</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>105</v>
+        <v>464</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>106</v>
+        <v>465</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11770,7 +11756,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>107</v>
+        <v>468</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11782,7 +11768,7 @@
         <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
@@ -11791,7 +11777,7 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11802,12 +11788,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>535</v>
+        <v>501</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="D82" t="s" s="2">
         <v>78</v>
       </c>
@@ -11816,7 +11804,7 @@
         <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
@@ -11873,16 +11861,16 @@
         <v>78</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>118</v>
@@ -11917,10 +11905,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>528</v>
+        <v>480</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11928,7 +11916,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>90</v>
@@ -11943,24 +11931,22 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>501</v>
+        <v>105</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>533</v>
+        <v>78</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>78</v>
@@ -12002,10 +11988,10 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>505</v>
+        <v>107</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>90</v>
@@ -12023,7 +12009,7 @@
         <v>78</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -12034,10 +12020,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>537</v>
+        <v>504</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>530</v>
+        <v>482</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12048,7 +12034,7 @@
         <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>78</v>
@@ -12060,13 +12046,13 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>508</v>
+        <v>204</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>509</v>
+        <v>205</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12105,31 +12091,31 @@
         <v>78</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>512</v>
+        <v>118</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
@@ -12138,7 +12124,7 @@
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -12149,20 +12135,18 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>538</v>
+        <v>505</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>539</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>90</v>
@@ -12177,22 +12161,24 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>540</v>
+        <v>457</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" t="s" s="2">
-        <v>78</v>
+        <v>502</v>
       </c>
       <c r="S85" t="s" s="2">
         <v>78</v>
@@ -12234,19 +12220,19 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>118</v>
+        <v>461</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
@@ -12255,7 +12241,7 @@
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -12266,10 +12252,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>541</v>
+        <v>506</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12295,10 +12281,10 @@
         <v>104</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>105</v>
+        <v>464</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>106</v>
+        <v>465</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12349,7 +12335,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>107</v>
+        <v>468</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -12361,7 +12347,7 @@
         <v>78</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
@@ -12370,7 +12356,7 @@
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12381,12 +12367,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>542</v>
+        <v>507</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="C87" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="D87" t="s" s="2">
         <v>78</v>
       </c>
@@ -12395,7 +12383,7 @@
         <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>78</v>
@@ -12410,7 +12398,7 @@
         <v>111</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>204</v>
+        <v>509</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>205</v>
@@ -12452,16 +12440,16 @@
         <v>78</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>118</v>
@@ -12496,10 +12484,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>543</v>
+        <v>510</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>528</v>
+        <v>480</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12507,7 +12495,7 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>90</v>
@@ -12522,24 +12510,22 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>501</v>
+        <v>105</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>539</v>
+        <v>78</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>78</v>
@@ -12581,10 +12567,10 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>505</v>
+        <v>107</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>90</v>
@@ -12602,7 +12588,7 @@
         <v>78</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12613,10 +12599,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>544</v>
+        <v>511</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>530</v>
+        <v>482</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12627,7 +12613,7 @@
         <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>78</v>
@@ -12639,13 +12625,13 @@
         <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>508</v>
+        <v>204</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>509</v>
+        <v>205</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12684,31 +12670,31 @@
         <v>78</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>512</v>
+        <v>118</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
@@ -12717,7 +12703,7 @@
         <v>78</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>78</v>
@@ -12728,20 +12714,18 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>546</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>90</v>
@@ -12756,22 +12740,24 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>204</v>
+        <v>457</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q90" s="2"/>
       <c r="R90" t="s" s="2">
-        <v>78</v>
+        <v>508</v>
       </c>
       <c r="S90" t="s" s="2">
         <v>78</v>
@@ -12813,19 +12799,19 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>118</v>
+        <v>461</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
@@ -12834,7 +12820,7 @@
         <v>78</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
@@ -12845,10 +12831,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>547</v>
+        <v>513</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12874,10 +12860,10 @@
         <v>104</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>105</v>
+        <v>464</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>106</v>
+        <v>465</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12928,7 +12914,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>107</v>
+        <v>468</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -12940,7 +12926,7 @@
         <v>78</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
@@ -12949,7 +12935,7 @@
         <v>78</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>78</v>
@@ -12960,12 +12946,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>548</v>
+        <v>514</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="C92" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="D92" t="s" s="2">
         <v>78</v>
       </c>
@@ -12974,7 +12962,7 @@
         <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>78</v>
@@ -13031,16 +13019,16 @@
         <v>78</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>118</v>
@@ -13075,10 +13063,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>549</v>
+        <v>516</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>528</v>
+        <v>480</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13086,7 +13074,7 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>90</v>
@@ -13101,24 +13089,22 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>501</v>
+        <v>105</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>546</v>
+        <v>78</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>78</v>
@@ -13160,10 +13146,10 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>505</v>
+        <v>107</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>90</v>
@@ -13181,7 +13167,7 @@
         <v>78</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>
@@ -13192,10 +13178,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>550</v>
+        <v>517</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>530</v>
+        <v>482</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13206,7 +13192,7 @@
         <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>78</v>
@@ -13218,13 +13204,13 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>508</v>
+        <v>204</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>509</v>
+        <v>205</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13263,31 +13249,31 @@
         <v>78</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>512</v>
+        <v>118</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>78</v>
@@ -13296,7 +13282,7 @@
         <v>78</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -13307,20 +13293,18 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>551</v>
+        <v>518</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>90</v>
@@ -13335,22 +13319,24 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>553</v>
+        <v>457</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q95" s="2"/>
       <c r="R95" t="s" s="2">
-        <v>78</v>
+        <v>515</v>
       </c>
       <c r="S95" t="s" s="2">
         <v>78</v>
@@ -13392,19 +13378,19 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>118</v>
+        <v>461</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>78</v>
@@ -13413,7 +13399,7 @@
         <v>78</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>78</v>
@@ -13424,10 +13410,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>554</v>
+        <v>519</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13450,13 +13436,13 @@
         <v>78</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>104</v>
+        <v>315</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>105</v>
+        <v>464</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>106</v>
+        <v>465</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13507,7 +13493,7 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>107</v>
+        <v>468</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13519,7 +13505,7 @@
         <v>78</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>78</v>
@@ -13528,7 +13514,7 @@
         <v>78</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>78</v>
@@ -13539,12 +13525,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>555</v>
+        <v>520</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="C97" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="D97" t="s" s="2">
         <v>78</v>
       </c>
@@ -13553,7 +13541,7 @@
         <v>79</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>78</v>
@@ -13610,16 +13598,16 @@
         <v>78</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>118</v>
@@ -13654,10 +13642,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>556</v>
+        <v>522</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>528</v>
+        <v>480</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13665,7 +13653,7 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>90</v>
@@ -13680,24 +13668,22 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>501</v>
+        <v>105</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>552</v>
+        <v>78</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>78</v>
@@ -13739,10 +13725,10 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>505</v>
+        <v>107</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>90</v>
@@ -13760,7 +13746,7 @@
         <v>78</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>78</v>
@@ -13771,10 +13757,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>530</v>
+        <v>482</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13785,7 +13771,7 @@
         <v>79</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>78</v>
@@ -13797,13 +13783,13 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>508</v>
+        <v>204</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>509</v>
+        <v>205</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13842,31 +13828,31 @@
         <v>78</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC99" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>512</v>
+        <v>118</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>78</v>
@@ -13875,7 +13861,7 @@
         <v>78</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>78</v>
@@ -13886,20 +13872,18 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>558</v>
+        <v>524</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C100" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>90</v>
@@ -13914,22 +13898,24 @@
         <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>204</v>
+        <v>457</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q100" s="2"/>
       <c r="R100" t="s" s="2">
-        <v>78</v>
+        <v>521</v>
       </c>
       <c r="S100" t="s" s="2">
         <v>78</v>
@@ -13971,19 +13957,19 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>118</v>
+        <v>461</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>78</v>
@@ -13992,7 +13978,7 @@
         <v>78</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>78</v>
@@ -14003,10 +13989,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14029,13 +14015,13 @@
         <v>78</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>104</v>
+        <v>315</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>105</v>
+        <v>464</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>106</v>
+        <v>465</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14086,7 +14072,7 @@
         <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>107</v>
+        <v>468</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
@@ -14098,7 +14084,7 @@
         <v>78</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>78</v>
@@ -14107,7 +14093,7 @@
         <v>78</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>78</v>
@@ -14118,10 +14104,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>561</v>
+        <v>526</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>526</v>
+        <v>456</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14129,10 +14115,10 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>78</v>
@@ -14144,22 +14130,24 @@
         <v>78</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>204</v>
+        <v>457</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" t="s" s="2">
-        <v>78</v>
+        <v>527</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>78</v>
@@ -14189,31 +14177,31 @@
         <v>78</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>118</v>
+        <v>461</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>78</v>
@@ -14222,7 +14210,7 @@
         <v>78</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>78</v>
@@ -14233,10 +14221,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>562</v>
+        <v>528</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>528</v>
+        <v>463</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14244,10 +14232,10 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>78</v>
@@ -14259,24 +14247,22 @@
         <v>78</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>137</v>
+        <v>529</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>559</v>
+        <v>78</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>78</v>
@@ -14318,10 +14304,10 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>505</v>
+        <v>468</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>90</v>
@@ -14330,7 +14316,7 @@
         <v>78</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>78</v>
@@ -14350,10 +14336,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>563</v>
+        <v>530</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14361,7 +14347,7 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>90</v>
@@ -14373,16 +14359,16 @@
         <v>78</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14394,7 +14380,7 @@
         <v>78</v>
       </c>
       <c r="S104" t="s" s="2">
-        <v>78</v>
+        <v>534</v>
       </c>
       <c r="T104" t="s" s="2">
         <v>78</v>
@@ -14409,13 +14395,13 @@
         <v>78</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>78</v>
+        <v>535</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>78</v>
+        <v>536</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>78</v>
@@ -14433,7 +14419,7 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
@@ -14442,67 +14428,69 @@
         <v>90</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>78</v>
+        <v>538</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>78</v>
+        <v>539</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>78</v>
+        <v>540</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>202</v>
+        <v>541</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>78</v>
+        <v>542</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>565</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>204</v>
+        <v>545</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>548</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>78</v>
       </c>
@@ -14550,31 +14538,31 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>118</v>
+        <v>549</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>78</v>
+        <v>550</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>78</v>
+        <v>551</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>78</v>
+        <v>552</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>78</v>
@@ -14582,10 +14570,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14602,22 +14590,26 @@
         <v>78</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>105</v>
+        <v>555</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>558</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>78</v>
       </c>
@@ -14641,13 +14633,13 @@
         <v>78</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>78</v>
+        <v>559</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>78</v>
+        <v>560</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>78</v>
@@ -14665,7 +14657,7 @@
         <v>78</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>107</v>
+        <v>561</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
@@ -14677,19 +14669,19 @@
         <v>78</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>78</v>
+        <v>562</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>78</v>
+        <v>563</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>108</v>
+        <v>564</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>78</v>
+        <v>565</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>78</v>
@@ -14697,10 +14689,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B107" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14711,7 +14703,7 @@
         <v>79</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>78</v>
@@ -14720,18 +14712,20 @@
         <v>78</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>111</v>
+        <v>568</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>204</v>
+        <v>569</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>570</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>571</v>
+      </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>78</v>
@@ -14768,40 +14762,40 @@
         <v>78</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC107" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>118</v>
+        <v>572</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>78</v>
@@ -14812,10 +14806,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>528</v>
+        <v>574</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14823,7 +14817,7 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>90</v>
@@ -14835,27 +14829,25 @@
         <v>78</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>137</v>
+        <v>297</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>501</v>
+        <v>575</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>565</v>
+        <v>78</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>78</v>
@@ -14897,10 +14889,10 @@
         <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>505</v>
+        <v>577</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>90</v>
@@ -14909,30 +14901,30 @@
         <v>78</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>202</v>
+        <v>578</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>530</v>
+        <v>579</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14943,10 +14935,10 @@
         <v>79</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>78</v>
@@ -14955,15 +14947,17 @@
         <v>78</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>315</v>
+        <v>580</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>508</v>
+        <v>581</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>583</v>
+      </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>78</v>
@@ -15012,13 +15006,13 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>512</v>
+        <v>579</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>78</v>
@@ -15033,7 +15027,7 @@
         <v>78</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>202</v>
+        <v>584</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>78</v>
@@ -15044,10 +15038,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>500</v>
+        <v>585</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15055,7 +15049,7 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>90</v>
@@ -15070,24 +15064,22 @@
         <v>78</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>501</v>
+        <v>105</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q110" s="2"/>
       <c r="R110" t="s" s="2">
-        <v>571</v>
+        <v>78</v>
       </c>
       <c r="S110" t="s" s="2">
         <v>78</v>
@@ -15129,10 +15121,10 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>505</v>
+        <v>107</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>90</v>
@@ -15150,7 +15142,7 @@
         <v>78</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>78</v>
@@ -15161,21 +15153,21 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>507</v>
+        <v>586</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>78</v>
@@ -15187,15 +15179,17 @@
         <v>78</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>573</v>
+        <v>111</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>508</v>
+        <v>112</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N111" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>78</v>
@@ -15244,19 +15238,19 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>512</v>
+        <v>118</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>78</v>
@@ -15265,7 +15259,7 @@
         <v>78</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>78</v>
@@ -15276,42 +15270,46 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>444</v>
+        <v>587</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>78</v>
+        <v>588</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>445</v>
+        <v>589</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
+        <v>590</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>78</v>
       </c>
@@ -15320,7 +15318,7 @@
         <v>78</v>
       </c>
       <c r="S112" t="s" s="2">
-        <v>575</v>
+        <v>78</v>
       </c>
       <c r="T112" t="s" s="2">
         <v>78</v>
@@ -15335,13 +15333,13 @@
         <v>78</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>447</v>
+        <v>78</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>448</v>
+        <v>78</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>78</v>
@@ -15359,42 +15357,42 @@
         <v>78</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>449</v>
+        <v>591</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>450</v>
+        <v>78</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>452</v>
+        <v>78</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>453</v>
+        <v>202</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>454</v>
+        <v>78</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>455</v>
+        <v>592</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15402,35 +15400,31 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>78</v>
       </c>
@@ -15454,13 +15448,13 @@
         <v>78</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>78</v>
+        <v>595</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>78</v>
+        <v>596</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>78</v>
@@ -15478,13 +15472,13 @@
         <v>78</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>460</v>
+        <v>592</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>78</v>
@@ -15493,16 +15487,16 @@
         <v>102</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>461</v>
+        <v>78</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>462</v>
+        <v>78</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>463</v>
+        <v>584</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>78</v>
@@ -15510,10 +15504,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>464</v>
+        <v>597</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15530,26 +15524,22 @@
         <v>78</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>179</v>
+        <v>315</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>465</v>
+        <v>598</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>78</v>
       </c>
@@ -15573,13 +15563,13 @@
         <v>78</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>469</v>
+        <v>78</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>470</v>
+        <v>78</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>78</v>
@@ -15597,7 +15587,7 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>471</v>
+        <v>597</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -15612,16 +15602,16 @@
         <v>102</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>472</v>
+        <v>78</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>473</v>
+        <v>78</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>474</v>
+        <v>584</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>475</v>
+        <v>78</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>78</v>
@@ -15629,10 +15619,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>476</v>
+        <v>600</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15652,19 +15642,19 @@
         <v>78</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>477</v>
+        <v>601</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>478</v>
+        <v>602</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>479</v>
+        <v>603</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>480</v>
+        <v>604</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -15714,7 +15704,7 @@
         <v>78</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>481</v>
+        <v>600</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -15732,10 +15722,10 @@
         <v>78</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>108</v>
+        <v>584</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>78</v>
@@ -15746,10 +15736,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>580</v>
+        <v>605</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>482</v>
+        <v>605</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15769,18 +15759,20 @@
         <v>78</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>297</v>
+        <v>601</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>483</v>
+        <v>606</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N116" s="2"/>
+        <v>607</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>604</v>
+      </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
         <v>78</v>
@@ -15829,7 +15821,7 @@
         <v>78</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>485</v>
+        <v>605</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -15847,13 +15839,13 @@
         <v>78</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>486</v>
+        <v>584</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>78</v>
@@ -15861,10 +15853,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15887,17 +15879,15 @@
         <v>78</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>583</v>
+        <v>609</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>585</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="N117" s="2"/>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
         <v>78</v>
@@ -15946,7 +15936,7 @@
         <v>78</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -15967,7 +15957,7 @@
         <v>78</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>78</v>
@@ -15978,10 +15968,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16093,10 +16083,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16210,14 +16200,14 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
@@ -16239,10 +16229,10 @@
         <v>111</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="N120" t="s" s="2">
         <v>114</v>
@@ -16297,7 +16287,7 @@
         <v>78</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>79</v>
@@ -16329,10 +16319,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16340,10 +16330,10 @@
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>78</v>
@@ -16355,13 +16345,13 @@
         <v>78</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -16388,13 +16378,13 @@
         <v>78</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>597</v>
+        <v>78</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>598</v>
+        <v>78</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>78</v>
@@ -16412,13 +16402,13 @@
         <v>78</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>78</v>
@@ -16433,7 +16423,7 @@
         <v>78</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>586</v>
+        <v>108</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>78</v>
@@ -16444,10 +16434,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16470,13 +16460,13 @@
         <v>78</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -16527,7 +16517,7 @@
         <v>78</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -16548,7 +16538,7 @@
         <v>78</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>78</v>
@@ -16557,12 +16547,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="123" hidden="true">
+    <row r="123">
       <c r="A123" t="s" s="2">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16573,10 +16563,10 @@
         <v>79</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I123" t="s" s="2">
         <v>78</v>
@@ -16585,17 +16575,15 @@
         <v>78</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>603</v>
+        <v>104</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>606</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="N123" s="2"/>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>78</v>
@@ -16644,7 +16632,7 @@
         <v>78</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -16665,7 +16653,7 @@
         <v>78</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>78</v>
@@ -16674,12 +16662,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="124" hidden="true">
+    <row r="124">
       <c r="A124" t="s" s="2">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16690,10 +16678,10 @@
         <v>79</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I124" t="s" s="2">
         <v>78</v>
@@ -16702,18 +16690,18 @@
         <v>78</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>603</v>
+        <v>624</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="O124" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="N124" s="2"/>
+      <c r="O124" t="s" s="2">
+        <v>627</v>
+      </c>
       <c r="P124" t="s" s="2">
         <v>78</v>
       </c>
@@ -16761,13 +16749,13 @@
         <v>78</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>78</v>
@@ -16782,945 +16770,17 @@
         <v>78</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>586</v>
+        <v>108</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="N125" s="2"/>
-      <c r="O125" s="2"/>
-      <c r="P125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q125" s="2"/>
-      <c r="R125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO125" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
-      <c r="P126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q126" s="2"/>
-      <c r="R126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO126" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O127" s="2"/>
-      <c r="P127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q127" s="2"/>
-      <c r="R127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO127" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="C128" s="2"/>
-      <c r="D128" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="E128" s="2"/>
-      <c r="F128" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="P128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q128" s="2"/>
-      <c r="R128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO128" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="C129" s="2"/>
-      <c r="D129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E129" s="2"/>
-      <c r="F129" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
-      <c r="P129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q129" s="2"/>
-      <c r="R129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO129" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="130" hidden="true">
-      <c r="A130" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="C130" s="2"/>
-      <c r="D130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E130" s="2"/>
-      <c r="F130" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
-      <c r="P130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q130" s="2"/>
-      <c r="R130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO130" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E131" s="2"/>
-      <c r="F131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
-      <c r="P131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q131" s="2"/>
-      <c r="R131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO131" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="C132" s="2"/>
-      <c r="D132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E132" s="2"/>
-      <c r="F132" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N132" s="2"/>
-      <c r="O132" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="P132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q132" s="2"/>
-      <c r="R132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO132" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO132">
+  <autoFilter ref="A1:AO124">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17730,7 +16790,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI131">
+  <conditionalFormatting sqref="A2:AI123">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
